--- a/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
+++ b/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
@@ -3112,7 +3112,7 @@
     <t>gender</t>
   </si>
   <si>
-    <t>[AdministrativeGenderVS] - See [Note on Decedent Gender]</t>
+    <t>[AdministrativeGenderVS] - See [Note on Gender]</t>
   </si>
   <si>
     <t>MortalityRosterBundle</t>
@@ -7849,7 +7849,7 @@
 other = Other unknown = Unknown</t>
   </si>
   <si>
-    <t>[USCorePatient] requires gender - can be 'unknown'. genderIdentity field is not required.</t>
+    <t xml:space="preserve">[USCorePatient] requires gender - can be 'unknown'. See [Note on Gender] </t>
   </si>
   <si>
     <t>Time of Birth</t>

--- a/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
+++ b/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">SPOUSEL </t>
   </si>
   <si>
-    <t>name.family, name.use = 'maiden</t>
+    <t>name.family, name.use = maiden</t>
   </si>
   <si>
     <t>Decedent's Residence - Street number</t>
@@ -6292,7 +6292,7 @@
 U = Unknown</t>
   </si>
   <si>
-    <t>ProcedureArtificialInsemination</t>
+    <t>ProcedureFertilityEnhancingDrugTherapyArtificialInsemination</t>
   </si>
   <si>
     <t>Remove Observation-pregnancy-risk-factor</t>
@@ -6307,7 +6307,7 @@
     <t>Y, N, X, U  (BLANK IF NOT ADDED)</t>
   </si>
   <si>
-    <t>ProcedureAssistedFertilization</t>
+    <t>ProcedureAssistedReproductiveTechnology</t>
   </si>
   <si>
     <t>4 digit year; &gt;=year of delivery, Blank (Date of Registration must be a valid date or entirely blank; no portions of the date may be unknown)</t>
@@ -9639,7 +9639,7 @@
   <sheetPr>
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A1:S277"/>
+  <dimension ref="A1:R277"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9656,7 +9656,7 @@
     <col min="15" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -9711,9 +9711,8 @@
       <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9756,7 +9755,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9799,7 +9798,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>6</v>
       </c>
@@ -9842,7 +9841,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>6</v>
       </c>
@@ -9882,7 +9881,7 @@
       <c r="N5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>7</v>
       </c>
@@ -9925,7 +9924,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>8</v>
       </c>
@@ -9968,7 +9967,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>9</v>
       </c>
@@ -10011,7 +10010,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>9</v>
       </c>
@@ -10050,7 +10049,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>10</v>
       </c>
@@ -10093,7 +10092,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>11</v>
       </c>
@@ -10136,7 +10135,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>12</v>
       </c>
@@ -10179,7 +10178,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>13</v>
       </c>
@@ -10222,7 +10221,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10265,7 +10264,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10306,7 +10305,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>15</v>
       </c>
@@ -21119,7 +21118,7 @@
   <sheetPr>
     <tabColor rgb="FFFF99CC"/>
   </sheetPr>
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21136,7 +21135,7 @@
     <col min="15" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -21191,9 +21190,8 @@
       <c r="R1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="5"/>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:18">
       <c r="B2">
         <v>1</v>
       </c>
@@ -21230,7 +21228,7 @@
       <c r="N2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -21265,7 +21263,7 @@
       <c r="N3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18">
       <c r="B4" t="s">
         <v>42</v>
       </c>
@@ -21300,7 +21298,7 @@
       <c r="N4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:18">
       <c r="B5" t="s">
         <v>42</v>
       </c>
@@ -21335,7 +21333,7 @@
       <c r="N5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:18">
       <c r="B6" t="s">
         <v>42</v>
       </c>
@@ -21372,7 +21370,7 @@
       <c r="N6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:18">
       <c r="B7" t="s">
         <v>946</v>
       </c>
@@ -21409,7 +21407,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:18">
       <c r="B8" t="s">
         <v>42</v>
       </c>
@@ -21446,7 +21444,7 @@
       <c r="N8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:18">
       <c r="B9" t="s">
         <v>42</v>
       </c>
@@ -21483,7 +21481,7 @@
       <c r="N9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:18">
       <c r="B10" t="s">
         <v>42</v>
       </c>
@@ -21520,7 +21518,7 @@
       <c r="N10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:18">
       <c r="B11" t="s">
         <v>42</v>
       </c>
@@ -21557,7 +21555,7 @@
       <c r="N11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:18">
       <c r="B12" t="s">
         <v>42</v>
       </c>
@@ -21594,7 +21592,7 @@
       <c r="N12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>431</v>
       </c>
@@ -21634,7 +21632,7 @@
       <c r="N13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>432</v>
       </c>
@@ -21674,7 +21672,7 @@
       <c r="N14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>433</v>
       </c>
@@ -21714,7 +21712,7 @@
       <c r="N15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>434</v>
       </c>
@@ -22972,7 +22970,7 @@
   <sheetPr>
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A1:S160"/>
+  <dimension ref="A1:R160"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22989,7 +22987,7 @@
     <col min="15" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -23044,9 +23042,8 @@
       <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>272</v>
       </c>
@@ -23089,7 +23086,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>430</v>
       </c>
@@ -23129,7 +23126,7 @@
       <c r="N3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>273</v>
       </c>
@@ -23172,7 +23169,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>275</v>
       </c>
@@ -23215,7 +23212,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>276</v>
       </c>
@@ -23258,7 +23255,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>277</v>
       </c>
@@ -23299,7 +23296,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>278</v>
       </c>
@@ -23340,7 +23337,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>279</v>
       </c>
@@ -23383,7 +23380,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>280</v>
       </c>
@@ -23424,7 +23421,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>281</v>
       </c>
@@ -23465,7 +23462,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>282</v>
       </c>
@@ -23508,7 +23505,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>283</v>
       </c>
@@ -23551,7 +23548,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>284</v>
       </c>
@@ -23594,7 +23591,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>285</v>
       </c>
@@ -23637,7 +23634,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>286</v>
       </c>
@@ -29770,7 +29767,7 @@
   <sheetPr>
     <tabColor rgb="FFCC99FF"/>
   </sheetPr>
-  <dimension ref="A1:S160"/>
+  <dimension ref="A1:R160"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29787,7 +29784,7 @@
     <col min="15" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -29842,9 +29839,8 @@
       <c r="R1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="6"/>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1183</v>
       </c>
@@ -29877,7 +29873,7 @@
       <c r="N2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1184</v>
       </c>
@@ -29910,7 +29906,7 @@
       <c r="N3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1185</v>
       </c>
@@ -29943,7 +29939,7 @@
       <c r="N4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1186</v>
       </c>
@@ -29976,7 +29972,7 @@
       <c r="N5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1187</v>
       </c>
@@ -30009,7 +30005,7 @@
       <c r="N6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1188</v>
       </c>
@@ -30042,7 +30038,7 @@
       <c r="N7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1189</v>
       </c>
@@ -30075,7 +30071,7 @@
       <c r="N8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1190</v>
       </c>
@@ -30108,7 +30104,7 @@
       <c r="N9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1191</v>
       </c>
@@ -30141,7 +30137,7 @@
       <c r="N10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1192</v>
       </c>
@@ -30174,7 +30170,7 @@
       <c r="N11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1193</v>
       </c>
@@ -30207,7 +30203,7 @@
       <c r="N12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1194</v>
       </c>
@@ -30240,7 +30236,7 @@
       <c r="N13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1195</v>
       </c>
@@ -30273,7 +30269,7 @@
       <c r="N14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1196</v>
       </c>
@@ -30306,7 +30302,7 @@
       <c r="N15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1197</v>
       </c>
@@ -35102,7 +35098,7 @@
   <sheetPr>
     <tabColor rgb="FFFFCC99"/>
   </sheetPr>
-  <dimension ref="A1:S370"/>
+  <dimension ref="A1:R370"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -35119,7 +35115,7 @@
     <col min="15" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -35174,9 +35170,8 @@
       <c r="R1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="7"/>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>818</v>
       </c>
@@ -35218,7 +35213,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>819</v>
       </c>
@@ -35260,7 +35255,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>820</v>
       </c>
@@ -35299,7 +35294,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>820</v>
       </c>
@@ -35338,7 +35333,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>820</v>
       </c>
@@ -35377,7 +35372,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>821</v>
       </c>
@@ -35415,7 +35410,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>822</v>
       </c>
@@ -35454,7 +35449,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>822</v>
       </c>
@@ -35493,7 +35488,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>822</v>
       </c>
@@ -35532,7 +35527,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>823</v>
       </c>
@@ -35574,7 +35569,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>824</v>
       </c>
@@ -35616,7 +35611,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>825</v>
       </c>
@@ -35658,7 +35653,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>826</v>
       </c>
@@ -35700,7 +35695,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>827</v>
       </c>
@@ -35742,7 +35737,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>828</v>
       </c>
@@ -49875,7 +49870,7 @@
   <sheetPr>
     <tabColor rgb="FFCCFFFF"/>
   </sheetPr>
-  <dimension ref="A1:S368"/>
+  <dimension ref="A1:R368"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -49892,7 +49887,7 @@
     <col min="15" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -49947,9 +49942,8 @@
       <c r="R1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="8"/>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>465</v>
       </c>
@@ -49991,7 +49985,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>466</v>
       </c>
@@ -50033,7 +50027,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>467</v>
       </c>
@@ -50072,7 +50066,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>467</v>
       </c>
@@ -50111,7 +50105,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>467</v>
       </c>
@@ -50150,7 +50144,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>468</v>
       </c>
@@ -50188,7 +50182,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>469</v>
       </c>
@@ -50227,7 +50221,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>469</v>
       </c>
@@ -50266,7 +50260,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>469</v>
       </c>
@@ -50305,7 +50299,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -50344,7 +50338,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -50383,7 +50377,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -50422,7 +50416,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -50461,7 +50455,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -50500,7 +50494,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -64828,7 +64822,7 @@
   <sheetPr>
     <tabColor rgb="FFC4BD97"/>
   </sheetPr>
-  <dimension ref="A1:S350"/>
+  <dimension ref="A1:R350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -64845,7 +64839,7 @@
     <col min="15" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -64900,9 +64894,8 @@
       <c r="R1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="9"/>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1342</v>
       </c>
@@ -64929,7 +64922,7 @@
       <c r="N2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1343</v>
       </c>
@@ -64956,7 +64949,7 @@
       <c r="N3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1344</v>
       </c>
@@ -64983,7 +64976,7 @@
       <c r="N4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1345</v>
       </c>
@@ -65010,7 +65003,7 @@
       <c r="N5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1346</v>
       </c>
@@ -65037,7 +65030,7 @@
       <c r="N6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1347</v>
       </c>
@@ -65064,7 +65057,7 @@
       <c r="N7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1348</v>
       </c>
@@ -65091,7 +65084,7 @@
       <c r="N8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1349</v>
       </c>
@@ -65118,7 +65111,7 @@
       <c r="N9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1350</v>
       </c>
@@ -65145,7 +65138,7 @@
       <c r="N10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1351</v>
       </c>
@@ -65172,7 +65165,7 @@
       <c r="N11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1352</v>
       </c>
@@ -65199,7 +65192,7 @@
       <c r="N12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1353</v>
       </c>
@@ -65224,7 +65217,7 @@
       <c r="N13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1354</v>
       </c>
@@ -65249,7 +65242,7 @@
       <c r="N14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1355</v>
       </c>
@@ -65276,7 +65269,7 @@
       <c r="N15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1356</v>
       </c>

--- a/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
+++ b/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12180" uniqueCount="2785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12178" uniqueCount="2785">
   <si>
     <t>This content was derived from the file IJE_File_Layouts_Version_2021_FHIR* and is automatically generated from the source file IJE_File_Layouts_and_FHIR_Mapping_24-06-21.csv.
 The CSV version of the file is used to drive the content of narrative generated for the Vital Records Implementation Guides (VRDR, BFDR, and VRCL).
@@ -2147,7 +2147,7 @@
     <t>DMOMMDN</t>
   </si>
   <si>
-    <t>name.family , name.use=maiden</t>
+    <t>name.family , name.use = maiden</t>
   </si>
   <si>
     <t>Was case Referred to Medical Examiner/Coroner?</t>
@@ -2439,7 +2439,7 @@
     <t>DMAIDEN</t>
   </si>
   <si>
-    <t>name.text , name.use=maiden</t>
+    <t>name.text , name.use = maiden</t>
   </si>
   <si>
     <t>Decedent's Birth Place City - Code</t>
@@ -5893,7 +5893,7 @@
     <t>code</t>
   </si>
   <si>
-    <t>See  [note on missing method of delivery data]</t>
+    <t>[DeliveryRoutesVS] unless unknown, &lt;br /&gt;See  [note on missing method of delivery data]</t>
   </si>
   <si>
     <t>Method of Delivery--Trial of Labor Attempted</t>
@@ -45909,9 +45909,6 @@
       <c r="L270" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M270" t="s">
-        <v>104</v>
-      </c>
       <c r="N270" s="1" t="s">
         <v>953</v>
       </c>
@@ -45950,9 +45947,6 @@
       </c>
       <c r="L271" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="M271" t="s">
-        <v>104</v>
       </c>
       <c r="N271" s="1" t="s">
         <v>953</v>

--- a/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
+++ b/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
@@ -2148,7 +2148,7 @@
     <t>DMOMMDN</t>
   </si>
   <si>
-    <t>name.family , name.use=maiden</t>
+    <t>name.family , name.use = maiden</t>
   </si>
   <si>
     <t>Was case Referred to Medical Examiner/Coroner?</t>
@@ -2440,7 +2440,7 @@
     <t>DMAIDEN</t>
   </si>
   <si>
-    <t>name.text , name.use=maiden</t>
+    <t>name.text , name.use = maiden</t>
   </si>
   <si>
     <t>Decedent's Birth Place City - Code</t>

--- a/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
+++ b/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12797" uniqueCount="2788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12796" uniqueCount="2788">
   <si>
     <t>This content was derived from the file IJE_File_Layouts_Version_2021_FHIR* and is automatically generated from the source file IJE_File_Layouts_and_FHIR_Mapping_24-06-21.csv.
 The CSV version of the file is used to drive the content of narrative generated for the Vital Records Implementation Guides (VRDR, BFDR, and VRCL).
@@ -10629,9 +10629,6 @@
       </c>
       <c r="N22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="S22" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23">

--- a/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
+++ b/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12796" uniqueCount="2788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12835" uniqueCount="2788">
   <si>
     <t>This content was derived from the file IJE_File_Layouts_Version_2021_FHIR* and is automatically generated from the source file IJE_File_Layouts_and_FHIR_Mapping_24-06-21.csv.
 The CSV version of the file is used to drive the content of narrative generated for the Vital Records Implementation Guides (VRDR, BFDR, and VRCL).
@@ -1075,6 +1075,9 @@
     <t>component[FirstEditedCode].value, &lt;br /&gt;code=CodeSystemLocalObservationsCodesVitalRecords#codedraceandethnicityDecedent</t>
   </si>
   <si>
+    <t>[ValueSetRaceCodeVitalRecords]</t>
+  </si>
+  <si>
     <t>Second Edited Code</t>
   </si>
   <si>
@@ -1085,9 +1088,6 @@
   </si>
   <si>
     <t>component[SecondEditedCode].value, &lt;br /&gt;code=CodeSystemLocalObservationsCodesVitalRecords#codedraceandethnicityDecedent</t>
-  </si>
-  <si>
-    <t>[ValueSetRaceCodeVitalRecords]</t>
   </si>
   <si>
     <t>Third Edited Code</t>
@@ -13053,9 +13053,11 @@
       <c r="K75" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="L75" s="1"/>
+      <c r="L75" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M75" t="s">
-        <v>43</v>
+        <v>305</v>
       </c>
       <c r="N75" s="1"/>
       <c r="P75" s="1"/>
@@ -13074,13 +13076,13 @@
         <v>3</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I76" t="s">
         <v>208</v>
@@ -13089,13 +13091,13 @@
         <v>303</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>35</v>
       </c>
       <c r="M76" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N76" s="1"/>
       <c r="P76" s="1"/>
@@ -13120,7 +13122,7 @@
         <v>311</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I77" t="s">
         <v>208</v>
@@ -13135,7 +13137,7 @@
         <v>35</v>
       </c>
       <c r="M77" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N77" s="1"/>
       <c r="P77" s="1"/>
@@ -13160,7 +13162,7 @@
         <v>314</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I78" t="s">
         <v>208</v>
@@ -13175,7 +13177,7 @@
         <v>35</v>
       </c>
       <c r="M78" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N78" s="1"/>
       <c r="P78" s="1"/>
@@ -13200,7 +13202,7 @@
         <v>317</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I79" t="s">
         <v>208</v>
@@ -13215,7 +13217,7 @@
         <v>35</v>
       </c>
       <c r="M79" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N79" s="1"/>
       <c r="P79" s="1"/>
@@ -13240,7 +13242,7 @@
         <v>320</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I80" t="s">
         <v>208</v>
@@ -13255,7 +13257,7 @@
         <v>35</v>
       </c>
       <c r="M80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N80" s="1"/>
       <c r="P80" s="1"/>
@@ -13280,7 +13282,7 @@
         <v>323</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I81" t="s">
         <v>208</v>
@@ -13295,7 +13297,7 @@
         <v>35</v>
       </c>
       <c r="M81" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N81" s="1"/>
       <c r="P81" s="1"/>
@@ -13320,7 +13322,7 @@
         <v>326</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I82" t="s">
         <v>208</v>
@@ -13335,7 +13337,7 @@
         <v>35</v>
       </c>
       <c r="M82" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N82" s="1"/>
       <c r="P82" s="1"/>
@@ -13360,7 +13362,7 @@
         <v>329</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I83" t="s">
         <v>208</v>
@@ -13375,7 +13377,7 @@
         <v>35</v>
       </c>
       <c r="M83" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N83" s="1"/>
       <c r="P83" s="1"/>
@@ -13400,7 +13402,7 @@
         <v>332</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I84" t="s">
         <v>208</v>
@@ -13415,7 +13417,7 @@
         <v>35</v>
       </c>
       <c r="M84" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N84" s="1"/>
       <c r="P84" s="1"/>
@@ -13440,7 +13442,7 @@
         <v>335</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I85" t="s">
         <v>208</v>
@@ -13455,7 +13457,7 @@
         <v>35</v>
       </c>
       <c r="M85" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N85" s="1"/>
       <c r="P85" s="1"/>
@@ -13480,7 +13482,7 @@
         <v>338</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I86" t="s">
         <v>208</v>
@@ -13495,7 +13497,7 @@
         <v>35</v>
       </c>
       <c r="M86" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N86" s="1"/>
       <c r="P86" s="1"/>
@@ -13520,7 +13522,7 @@
         <v>341</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I87" t="s">
         <v>208</v>
@@ -13535,7 +13537,7 @@
         <v>35</v>
       </c>
       <c r="M87" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N87" s="1"/>
       <c r="P87" s="1"/>
@@ -13560,7 +13562,7 @@
         <v>344</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I88" t="s">
         <v>208</v>
@@ -13575,7 +13577,7 @@
         <v>35</v>
       </c>
       <c r="M88" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N88" s="1"/>
       <c r="P88" s="1"/>
@@ -13600,7 +13602,7 @@
         <v>347</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I89" t="s">
         <v>208</v>
@@ -13615,7 +13617,7 @@
         <v>35</v>
       </c>
       <c r="M89" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N89" s="1"/>
       <c r="P89" s="1"/>
@@ -13640,7 +13642,7 @@
         <v>350</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I90" t="s">
         <v>208</v>
@@ -13655,7 +13657,7 @@
         <v>35</v>
       </c>
       <c r="M90" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N90" s="1"/>
       <c r="P90" s="1"/>
@@ -13699,6 +13701,9 @@
       </c>
       <c r="N91" s="1"/>
       <c r="P91" s="1"/>
+      <c r="S91" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="92" spans="1:19">
       <c r="A92">
@@ -15286,6 +15291,9 @@
       </c>
       <c r="N129" s="1"/>
       <c r="P129" s="1"/>
+      <c r="S129" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="130" spans="1:19">
       <c r="A130">
@@ -15440,6 +15448,9 @@
         <v>28</v>
       </c>
       <c r="P133" s="1"/>
+      <c r="S133" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="134" spans="1:19">
       <c r="A134">
@@ -15768,6 +15779,9 @@
       </c>
       <c r="N141" s="1"/>
       <c r="P141" s="1"/>
+      <c r="S141" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="142" spans="1:19">
       <c r="A142">
@@ -15811,6 +15825,9 @@
       </c>
       <c r="N142" s="1"/>
       <c r="P142" s="1"/>
+      <c r="S142" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="143" spans="1:19">
       <c r="A143">
@@ -15852,6 +15869,9 @@
       </c>
       <c r="N143" s="1"/>
       <c r="P143" s="1"/>
+      <c r="S143" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="144" spans="1:19">
       <c r="A144">
@@ -15893,6 +15913,9 @@
       </c>
       <c r="N144" s="1"/>
       <c r="P144" s="1"/>
+      <c r="S144" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="145" spans="1:19">
       <c r="A145">
@@ -15934,6 +15957,9 @@
       </c>
       <c r="N145" s="1"/>
       <c r="P145" s="1"/>
+      <c r="S145" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="146" spans="1:19">
       <c r="A146">
@@ -15975,6 +16001,9 @@
       </c>
       <c r="N146" s="1"/>
       <c r="P146" s="1"/>
+      <c r="S146" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="147" spans="1:19">
       <c r="A147">
@@ -16016,6 +16045,9 @@
       </c>
       <c r="N147" s="1"/>
       <c r="P147" s="1"/>
+      <c r="S147" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="148" spans="1:19">
       <c r="A148">
@@ -16059,6 +16091,9 @@
       </c>
       <c r="N148" s="1"/>
       <c r="P148" s="1"/>
+      <c r="S148" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="149" spans="1:19">
       <c r="A149">
@@ -16102,6 +16137,9 @@
       </c>
       <c r="N149" s="1"/>
       <c r="P149" s="1"/>
+      <c r="S149" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="150" spans="1:19">
       <c r="A150">
@@ -16145,6 +16183,9 @@
       </c>
       <c r="N150" s="1"/>
       <c r="P150" s="1"/>
+      <c r="S150" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="151" spans="1:19">
       <c r="A151">
@@ -16188,6 +16229,9 @@
       </c>
       <c r="N151" s="1"/>
       <c r="P151" s="1"/>
+      <c r="S151" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="152" spans="1:19">
       <c r="A152">
@@ -16231,6 +16275,9 @@
       </c>
       <c r="N152" s="1"/>
       <c r="P152" s="1"/>
+      <c r="S152" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="153" spans="1:19">
       <c r="A153">
@@ -16983,6 +17030,9 @@
         <v>28</v>
       </c>
       <c r="P169" s="1"/>
+      <c r="S169" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="170" spans="1:19">
       <c r="A170">
@@ -35908,9 +35958,6 @@
         <v>43</v>
       </c>
       <c r="P8" s="1"/>
-      <c r="S8" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9">
@@ -38514,7 +38561,7 @@
         <v>35</v>
       </c>
       <c r="M69" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>1569</v>
@@ -38556,7 +38603,7 @@
         <v>35</v>
       </c>
       <c r="M70" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>1569</v>
@@ -38598,7 +38645,7 @@
         <v>35</v>
       </c>
       <c r="M71" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>1569</v>
@@ -38640,7 +38687,7 @@
         <v>35</v>
       </c>
       <c r="M72" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>1569</v>
@@ -38682,7 +38729,7 @@
         <v>35</v>
       </c>
       <c r="M73" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>1569</v>
@@ -38724,7 +38771,7 @@
         <v>35</v>
       </c>
       <c r="M74" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>1569</v>
@@ -38766,7 +38813,7 @@
         <v>35</v>
       </c>
       <c r="M75" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>1569</v>
@@ -38808,7 +38855,7 @@
         <v>35</v>
       </c>
       <c r="M76" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>1569</v>
@@ -38850,7 +38897,7 @@
         <v>35</v>
       </c>
       <c r="M77" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>1569</v>
@@ -38892,7 +38939,7 @@
         <v>35</v>
       </c>
       <c r="M78" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>1569</v>
@@ -38934,7 +38981,7 @@
         <v>35</v>
       </c>
       <c r="M79" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>1569</v>
@@ -38976,7 +39023,7 @@
         <v>35</v>
       </c>
       <c r="M80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>1569</v>
@@ -39018,7 +39065,7 @@
         <v>35</v>
       </c>
       <c r="M81" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>1569</v>
@@ -39060,7 +39107,7 @@
         <v>35</v>
       </c>
       <c r="M82" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>1569</v>
@@ -39102,7 +39149,7 @@
         <v>35</v>
       </c>
       <c r="M83" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>1569</v>
@@ -39144,7 +39191,7 @@
         <v>35</v>
       </c>
       <c r="M84" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>1569</v>
@@ -40772,9 +40819,6 @@
         <v>43</v>
       </c>
       <c r="P123" s="1"/>
-      <c r="S123" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="124" spans="1:19">
       <c r="A124">
@@ -42348,9 +42392,6 @@
         <v>43</v>
       </c>
       <c r="P161" s="1"/>
-      <c r="S161" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="162" spans="1:19">
       <c r="A162">
@@ -42865,9 +42906,6 @@
       <c r="R175" t="s">
         <v>1884</v>
       </c>
-      <c r="S175" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="176" spans="1:19">
       <c r="A176">
@@ -42911,9 +42949,6 @@
       <c r="R176" t="s">
         <v>1884</v>
       </c>
-      <c r="S176" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="177" spans="1:19">
       <c r="A177">
@@ -42957,9 +42992,6 @@
       <c r="R177" t="s">
         <v>1884</v>
       </c>
-      <c r="S177" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="178" spans="1:19">
       <c r="A178">
@@ -45004,7 +45036,7 @@
       </c>
       <c r="P224" s="1"/>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:19">
       <c r="A225">
         <v>1035</v>
       </c>
@@ -45039,7 +45071,7 @@
       </c>
       <c r="P225" s="1"/>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:19">
       <c r="A226">
         <v>1036</v>
       </c>
@@ -45081,7 +45113,7 @@
       </c>
       <c r="P226" s="1"/>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:19">
       <c r="A227">
         <v>1037</v>
       </c>
@@ -45123,7 +45155,7 @@
       </c>
       <c r="P227" s="1"/>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:19">
       <c r="A228">
         <v>1038</v>
       </c>
@@ -45165,7 +45197,7 @@
       </c>
       <c r="P228" s="1"/>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:19">
       <c r="A229">
         <v>1039</v>
       </c>
@@ -45204,7 +45236,7 @@
       </c>
       <c r="P229" s="1"/>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:19">
       <c r="A230">
         <v>1040</v>
       </c>
@@ -45239,7 +45271,7 @@
       </c>
       <c r="P230" s="1"/>
     </row>
-    <row r="231" spans="1:16">
+    <row r="231" spans="1:19">
       <c r="A231">
         <v>1041</v>
       </c>
@@ -45278,7 +45310,7 @@
       </c>
       <c r="P231" s="1"/>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:19">
       <c r="A232">
         <v>1042</v>
       </c>
@@ -45316,8 +45348,11 @@
         <v>955</v>
       </c>
       <c r="P232" s="1"/>
-    </row>
-    <row r="233" spans="1:16">
+      <c r="S232" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19">
       <c r="A233">
         <v>1043</v>
       </c>
@@ -45355,8 +45390,11 @@
         <v>955</v>
       </c>
       <c r="P233" s="1"/>
-    </row>
-    <row r="234" spans="1:16">
+      <c r="S233" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19">
       <c r="A234">
         <v>1044</v>
       </c>
@@ -45394,8 +45432,11 @@
         <v>955</v>
       </c>
       <c r="P234" s="1"/>
-    </row>
-    <row r="235" spans="1:16">
+      <c r="S234" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19">
       <c r="A235">
         <v>1045</v>
       </c>
@@ -45433,8 +45474,11 @@
         <v>955</v>
       </c>
       <c r="P235" s="1"/>
-    </row>
-    <row r="236" spans="1:16">
+      <c r="S235" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19">
       <c r="A236">
         <v>1046</v>
       </c>
@@ -45472,8 +45516,11 @@
         <v>955</v>
       </c>
       <c r="P236" s="1"/>
-    </row>
-    <row r="237" spans="1:16">
+      <c r="S236" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19">
       <c r="A237">
         <v>1047</v>
       </c>
@@ -45511,8 +45558,11 @@
         <v>955</v>
       </c>
       <c r="P237" s="1"/>
-    </row>
-    <row r="238" spans="1:16">
+      <c r="S237" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19">
       <c r="A238">
         <v>1048</v>
       </c>
@@ -45550,8 +45600,11 @@
         <v>955</v>
       </c>
       <c r="P238" s="1"/>
-    </row>
-    <row r="239" spans="1:16">
+      <c r="S238" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19">
       <c r="A239">
         <v>1049</v>
       </c>
@@ -45589,8 +45642,11 @@
         <v>955</v>
       </c>
       <c r="P239" s="1"/>
-    </row>
-    <row r="240" spans="1:16">
+      <c r="S239" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19">
       <c r="A240">
         <v>1050</v>
       </c>
@@ -45628,6 +45684,9 @@
         <v>955</v>
       </c>
       <c r="P240" s="1"/>
+      <c r="S240" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="241" spans="1:19">
       <c r="A241">
@@ -45667,6 +45726,9 @@
         <v>955</v>
       </c>
       <c r="P241" s="1"/>
+      <c r="S241" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="242" spans="1:19">
       <c r="A242">
@@ -45709,6 +45771,9 @@
         <v>955</v>
       </c>
       <c r="P242" s="1"/>
+      <c r="S242" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="243" spans="1:19">
       <c r="A243">
@@ -45751,6 +45816,9 @@
         <v>955</v>
       </c>
       <c r="P243" s="1"/>
+      <c r="S243" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="244" spans="1:19">
       <c r="A244">
@@ -46917,7 +46985,7 @@
       </c>
       <c r="P272" s="1"/>
     </row>
-    <row r="273" spans="1:18">
+    <row r="273" spans="1:19">
       <c r="A273">
         <v>1083</v>
       </c>
@@ -46956,7 +47024,7 @@
       </c>
       <c r="P273" s="1"/>
     </row>
-    <row r="274" spans="1:18">
+    <row r="274" spans="1:19">
       <c r="A274">
         <v>1084</v>
       </c>
@@ -46991,7 +47059,7 @@
       </c>
       <c r="P274" s="1"/>
     </row>
-    <row r="275" spans="1:18">
+    <row r="275" spans="1:19">
       <c r="A275">
         <v>1085</v>
       </c>
@@ -47026,7 +47094,7 @@
       </c>
       <c r="P275" s="1"/>
     </row>
-    <row r="276" spans="1:18">
+    <row r="276" spans="1:19">
       <c r="A276">
         <v>1086</v>
       </c>
@@ -47070,7 +47138,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="277" spans="1:18">
+    <row r="277" spans="1:19">
       <c r="A277">
         <v>1087</v>
       </c>
@@ -47103,7 +47171,7 @@
       </c>
       <c r="P277" s="1"/>
     </row>
-    <row r="278" spans="1:18">
+    <row r="278" spans="1:19">
       <c r="A278">
         <v>1088</v>
       </c>
@@ -47147,7 +47215,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="279" spans="1:18">
+    <row r="279" spans="1:19">
       <c r="A279">
         <v>1089</v>
       </c>
@@ -47180,7 +47248,7 @@
       </c>
       <c r="P279" s="1"/>
     </row>
-    <row r="280" spans="1:18">
+    <row r="280" spans="1:19">
       <c r="A280">
         <v>1090</v>
       </c>
@@ -47225,7 +47293,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="281" spans="1:18">
+    <row r="281" spans="1:19">
       <c r="A281">
         <v>1091</v>
       </c>
@@ -47258,7 +47326,7 @@
       </c>
       <c r="P281" s="1"/>
     </row>
-    <row r="282" spans="1:18">
+    <row r="282" spans="1:19">
       <c r="A282">
         <v>1092</v>
       </c>
@@ -47302,7 +47370,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="283" spans="1:18">
+    <row r="283" spans="1:19">
       <c r="A283">
         <v>1093</v>
       </c>
@@ -47335,7 +47403,7 @@
       </c>
       <c r="P283" s="1"/>
     </row>
-    <row r="284" spans="1:18">
+    <row r="284" spans="1:19">
       <c r="A284">
         <v>1094</v>
       </c>
@@ -47376,8 +47444,11 @@
         <v>955</v>
       </c>
       <c r="P284" s="1"/>
-    </row>
-    <row r="285" spans="1:18">
+      <c r="S284" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19">
       <c r="A285">
         <v>1095</v>
       </c>
@@ -47418,8 +47489,11 @@
         <v>955</v>
       </c>
       <c r="P285" s="1"/>
-    </row>
-    <row r="286" spans="1:18">
+      <c r="S285" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19">
       <c r="A286">
         <v>1096</v>
       </c>
@@ -47460,8 +47534,11 @@
         <v>955</v>
       </c>
       <c r="P286" s="1"/>
-    </row>
-    <row r="287" spans="1:18">
+      <c r="S286" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19">
       <c r="A287">
         <v>1097</v>
       </c>
@@ -47502,8 +47579,11 @@
         <v>955</v>
       </c>
       <c r="P287" s="1"/>
-    </row>
-    <row r="288" spans="1:18">
+      <c r="S287" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19">
       <c r="A288">
         <v>1098</v>
       </c>
@@ -47544,8 +47624,11 @@
         <v>955</v>
       </c>
       <c r="P288" s="1"/>
-    </row>
-    <row r="289" spans="1:16">
+      <c r="S288" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="289" spans="1:19">
       <c r="A289">
         <v>1099</v>
       </c>
@@ -47586,8 +47669,11 @@
         <v>955</v>
       </c>
       <c r="P289" s="1"/>
-    </row>
-    <row r="290" spans="1:16">
+      <c r="S289" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="290" spans="1:19">
       <c r="A290">
         <v>1100</v>
       </c>
@@ -47629,7 +47715,7 @@
       </c>
       <c r="P290" s="1"/>
     </row>
-    <row r="291" spans="1:16">
+    <row r="291" spans="1:19">
       <c r="A291">
         <v>1101</v>
       </c>
@@ -47671,7 +47757,7 @@
       </c>
       <c r="P291" s="1"/>
     </row>
-    <row r="292" spans="1:16">
+    <row r="292" spans="1:19">
       <c r="A292">
         <v>1102</v>
       </c>
@@ -47713,7 +47799,7 @@
       </c>
       <c r="P292" s="1"/>
     </row>
-    <row r="293" spans="1:16">
+    <row r="293" spans="1:19">
       <c r="A293">
         <v>1103</v>
       </c>
@@ -47755,7 +47841,7 @@
       </c>
       <c r="P293" s="1"/>
     </row>
-    <row r="294" spans="1:16">
+    <row r="294" spans="1:19">
       <c r="A294">
         <v>1104</v>
       </c>
@@ -47797,7 +47883,7 @@
       </c>
       <c r="P294" s="1"/>
     </row>
-    <row r="295" spans="1:16">
+    <row r="295" spans="1:19">
       <c r="A295">
         <v>1105</v>
       </c>
@@ -47839,7 +47925,7 @@
       </c>
       <c r="P295" s="1"/>
     </row>
-    <row r="296" spans="1:16">
+    <row r="296" spans="1:19">
       <c r="A296">
         <v>1106</v>
       </c>
@@ -47878,7 +47964,7 @@
       </c>
       <c r="P296" s="1"/>
     </row>
-    <row r="297" spans="1:16">
+    <row r="297" spans="1:19">
       <c r="A297">
         <v>1107</v>
       </c>
@@ -47917,7 +48003,7 @@
       </c>
       <c r="P297" s="1"/>
     </row>
-    <row r="298" spans="1:16">
+    <row r="298" spans="1:19">
       <c r="A298">
         <v>1108</v>
       </c>
@@ -47956,7 +48042,7 @@
       </c>
       <c r="P298" s="1"/>
     </row>
-    <row r="299" spans="1:16">
+    <row r="299" spans="1:19">
       <c r="A299">
         <v>1109</v>
       </c>
@@ -47995,7 +48081,7 @@
       </c>
       <c r="P299" s="1"/>
     </row>
-    <row r="300" spans="1:16">
+    <row r="300" spans="1:19">
       <c r="A300">
         <v>1110</v>
       </c>
@@ -48034,7 +48120,7 @@
       </c>
       <c r="P300" s="1"/>
     </row>
-    <row r="301" spans="1:16">
+    <row r="301" spans="1:19">
       <c r="A301">
         <v>1111</v>
       </c>
@@ -48073,7 +48159,7 @@
       </c>
       <c r="P301" s="1"/>
     </row>
-    <row r="302" spans="1:16">
+    <row r="302" spans="1:19">
       <c r="A302">
         <v>1112</v>
       </c>
@@ -48112,7 +48198,7 @@
       </c>
       <c r="P302" s="1"/>
     </row>
-    <row r="303" spans="1:16">
+    <row r="303" spans="1:19">
       <c r="A303">
         <v>1113</v>
       </c>
@@ -48151,7 +48237,7 @@
       </c>
       <c r="P303" s="1"/>
     </row>
-    <row r="304" spans="1:16">
+    <row r="304" spans="1:19">
       <c r="A304">
         <v>1114</v>
       </c>
@@ -48810,7 +48896,7 @@
         <v>35</v>
       </c>
       <c r="M320" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N320" s="1" t="s">
         <v>1569</v>
@@ -48852,7 +48938,7 @@
         <v>35</v>
       </c>
       <c r="M321" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N321" s="1" t="s">
         <v>1569</v>
@@ -48894,7 +48980,7 @@
         <v>35</v>
       </c>
       <c r="M322" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N322" s="1" t="s">
         <v>1569</v>
@@ -48936,7 +49022,7 @@
         <v>35</v>
       </c>
       <c r="M323" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N323" s="1" t="s">
         <v>1569</v>
@@ -48978,7 +49064,7 @@
         <v>35</v>
       </c>
       <c r="M324" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N324" s="1" t="s">
         <v>1569</v>
@@ -49020,7 +49106,7 @@
         <v>35</v>
       </c>
       <c r="M325" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N325" s="1" t="s">
         <v>1569</v>
@@ -49062,7 +49148,7 @@
         <v>35</v>
       </c>
       <c r="M326" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N326" s="1" t="s">
         <v>1569</v>
@@ -49104,7 +49190,7 @@
         <v>35</v>
       </c>
       <c r="M327" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N327" s="1" t="s">
         <v>1569</v>
@@ -49146,7 +49232,7 @@
         <v>35</v>
       </c>
       <c r="M328" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N328" s="1" t="s">
         <v>1569</v>
@@ -49188,7 +49274,7 @@
         <v>35</v>
       </c>
       <c r="M329" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N329" s="1" t="s">
         <v>1569</v>
@@ -49230,7 +49316,7 @@
         <v>35</v>
       </c>
       <c r="M330" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N330" s="1" t="s">
         <v>1569</v>
@@ -49272,7 +49358,7 @@
         <v>35</v>
       </c>
       <c r="M331" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N331" s="1" t="s">
         <v>1569</v>
@@ -49314,7 +49400,7 @@
         <v>35</v>
       </c>
       <c r="M332" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N332" s="1" t="s">
         <v>1569</v>
@@ -49356,7 +49442,7 @@
         <v>35</v>
       </c>
       <c r="M333" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N333" s="1" t="s">
         <v>1569</v>
@@ -49398,7 +49484,7 @@
         <v>35</v>
       </c>
       <c r="M334" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N334" s="1" t="s">
         <v>1569</v>
@@ -49440,7 +49526,7 @@
         <v>35</v>
       </c>
       <c r="M335" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N335" s="1" t="s">
         <v>1569</v>
@@ -49489,7 +49575,7 @@
       </c>
       <c r="P336" s="1"/>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:19">
       <c r="A337">
         <v>1147</v>
       </c>
@@ -49531,7 +49617,7 @@
       </c>
       <c r="P337" s="1"/>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:19">
       <c r="A338">
         <v>1148</v>
       </c>
@@ -49566,7 +49652,7 @@
       </c>
       <c r="P338" s="1"/>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:19">
       <c r="A339">
         <v>1149</v>
       </c>
@@ -49608,7 +49694,7 @@
       </c>
       <c r="P339" s="1"/>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:19">
       <c r="A340">
         <v>1150</v>
       </c>
@@ -49650,7 +49736,7 @@
       </c>
       <c r="P340" s="1"/>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:19">
       <c r="A341">
         <v>1151</v>
       </c>
@@ -49685,7 +49771,7 @@
       </c>
       <c r="P341" s="1"/>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:19">
       <c r="A342">
         <v>1152</v>
       </c>
@@ -49720,7 +49806,7 @@
       </c>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:19">
       <c r="A343">
         <v>1153</v>
       </c>
@@ -49755,7 +49841,7 @@
       </c>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16">
+    <row r="344" spans="1:19">
       <c r="A344">
         <v>1154</v>
       </c>
@@ -49790,7 +49876,7 @@
       </c>
       <c r="P344" s="1"/>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:19">
       <c r="A345">
         <v>1155</v>
       </c>
@@ -49825,7 +49911,7 @@
       </c>
       <c r="P345" s="1"/>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:19">
       <c r="A346">
         <v>1156</v>
       </c>
@@ -49864,7 +49950,7 @@
       </c>
       <c r="P346" s="1"/>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:19">
       <c r="A347">
         <v>1157</v>
       </c>
@@ -49902,8 +49988,11 @@
         <v>955</v>
       </c>
       <c r="P347" s="1"/>
-    </row>
-    <row r="348" spans="1:16">
+      <c r="S347" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="348" spans="1:19">
       <c r="A348">
         <v>1158</v>
       </c>
@@ -49941,8 +50030,11 @@
         <v>955</v>
       </c>
       <c r="P348" s="1"/>
-    </row>
-    <row r="349" spans="1:16">
+      <c r="S348" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="349" spans="1:19">
       <c r="A349">
         <v>1159</v>
       </c>
@@ -49983,8 +50075,11 @@
         <v>955</v>
       </c>
       <c r="P349" s="1"/>
-    </row>
-    <row r="350" spans="1:16">
+      <c r="S349" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="350" spans="1:19">
       <c r="A350">
         <v>1160</v>
       </c>
@@ -50017,7 +50112,7 @@
       </c>
       <c r="P350" s="1"/>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:19">
       <c r="A351">
         <v>1161</v>
       </c>
@@ -50050,7 +50145,7 @@
       </c>
       <c r="P351" s="1"/>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:19">
       <c r="A352">
         <v>1162</v>
       </c>
@@ -50163,6 +50258,9 @@
         <v>955</v>
       </c>
       <c r="P354" s="1"/>
+      <c r="S354" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="355" spans="1:19">
       <c r="A355">
@@ -50205,6 +50303,9 @@
         <v>955</v>
       </c>
       <c r="P355" s="1"/>
+      <c r="S355" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="356" spans="1:19">
       <c r="A356">
@@ -50247,6 +50348,9 @@
         <v>955</v>
       </c>
       <c r="P356" s="1"/>
+      <c r="S356" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="357" spans="1:19">
       <c r="A357">
@@ -51223,9 +51327,6 @@
         <v>43</v>
       </c>
       <c r="P7" s="1"/>
-      <c r="S7" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8">
@@ -54215,15 +54316,12 @@
         <v>35</v>
       </c>
       <c r="M78" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="P78" s="1"/>
-      <c r="S78" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="79" spans="1:19">
       <c r="A79">
@@ -54260,15 +54358,12 @@
         <v>35</v>
       </c>
       <c r="M79" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="P79" s="1"/>
-      <c r="S79" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="80" spans="1:19">
       <c r="A80">
@@ -54305,15 +54400,12 @@
         <v>35</v>
       </c>
       <c r="M80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="P80" s="1"/>
-      <c r="S80" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="81" spans="1:19">
       <c r="A81">
@@ -54350,15 +54442,12 @@
         <v>35</v>
       </c>
       <c r="M81" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="P81" s="1"/>
-      <c r="S81" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="82" spans="1:19">
       <c r="A82">
@@ -54395,15 +54484,12 @@
         <v>35</v>
       </c>
       <c r="M82" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="P82" s="1"/>
-      <c r="S82" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="83" spans="1:19">
       <c r="A83">
@@ -54440,15 +54526,12 @@
         <v>35</v>
       </c>
       <c r="M83" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="P83" s="1"/>
-      <c r="S83" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="84" spans="1:19">
       <c r="A84">
@@ -54485,15 +54568,12 @@
         <v>35</v>
       </c>
       <c r="M84" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="P84" s="1"/>
-      <c r="S84" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="85" spans="1:19">
       <c r="A85">
@@ -54530,15 +54610,12 @@
         <v>35</v>
       </c>
       <c r="M85" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="P85" s="1"/>
-      <c r="S85" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="86" spans="1:19">
       <c r="A86">
@@ -54575,15 +54652,12 @@
         <v>35</v>
       </c>
       <c r="M86" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N86" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="P86" s="1"/>
-      <c r="S86" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="87" spans="1:19">
       <c r="A87">
@@ -54620,15 +54694,12 @@
         <v>35</v>
       </c>
       <c r="M87" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="P87" s="1"/>
-      <c r="S87" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="88" spans="1:19">
       <c r="A88">
@@ -54665,15 +54736,12 @@
         <v>35</v>
       </c>
       <c r="M88" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="P88" s="1"/>
-      <c r="S88" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="89" spans="1:19">
       <c r="A89">
@@ -54710,15 +54778,12 @@
         <v>35</v>
       </c>
       <c r="M89" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="P89" s="1"/>
-      <c r="S89" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="90" spans="1:19">
       <c r="A90">
@@ -54755,15 +54820,12 @@
         <v>35</v>
       </c>
       <c r="M90" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="P90" s="1"/>
-      <c r="S90" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="91" spans="1:19">
       <c r="A91">
@@ -54800,15 +54862,12 @@
         <v>35</v>
       </c>
       <c r="M91" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="P91" s="1"/>
-      <c r="S91" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="92" spans="1:19">
       <c r="A92">
@@ -54845,15 +54904,12 @@
         <v>35</v>
       </c>
       <c r="M92" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="P92" s="1"/>
-      <c r="S92" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="93" spans="1:19">
       <c r="A93">
@@ -54890,15 +54946,12 @@
         <v>35</v>
       </c>
       <c r="M93" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="P93" s="1"/>
-      <c r="S93" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="94" spans="1:19">
       <c r="A94">
@@ -56213,7 +56266,7 @@
         <v>35</v>
       </c>
       <c r="M124" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N124" s="1" t="s">
         <v>1569</v>
@@ -56258,7 +56311,7 @@
         <v>35</v>
       </c>
       <c r="M125" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N125" s="1" t="s">
         <v>1569</v>
@@ -56303,7 +56356,7 @@
         <v>35</v>
       </c>
       <c r="M126" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N126" s="1" t="s">
         <v>1569</v>
@@ -56348,7 +56401,7 @@
         <v>35</v>
       </c>
       <c r="M127" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N127" s="1" t="s">
         <v>1569</v>
@@ -56393,7 +56446,7 @@
         <v>35</v>
       </c>
       <c r="M128" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N128" s="1" t="s">
         <v>1569</v>
@@ -56438,7 +56491,7 @@
         <v>35</v>
       </c>
       <c r="M129" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N129" s="1" t="s">
         <v>1569</v>
@@ -56483,7 +56536,7 @@
         <v>35</v>
       </c>
       <c r="M130" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N130" s="1" t="s">
         <v>1569</v>
@@ -56528,7 +56581,7 @@
         <v>35</v>
       </c>
       <c r="M131" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N131" s="1" t="s">
         <v>1569</v>
@@ -56573,7 +56626,7 @@
         <v>35</v>
       </c>
       <c r="M132" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N132" s="1" t="s">
         <v>1569</v>
@@ -56618,7 +56671,7 @@
         <v>35</v>
       </c>
       <c r="M133" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N133" s="1" t="s">
         <v>1569</v>
@@ -56663,7 +56716,7 @@
         <v>35</v>
       </c>
       <c r="M134" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N134" s="1" t="s">
         <v>1569</v>
@@ -56708,7 +56761,7 @@
         <v>35</v>
       </c>
       <c r="M135" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N135" s="1" t="s">
         <v>1569</v>
@@ -56753,7 +56806,7 @@
         <v>35</v>
       </c>
       <c r="M136" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N136" s="1" t="s">
         <v>1569</v>
@@ -56798,7 +56851,7 @@
         <v>35</v>
       </c>
       <c r="M137" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N137" s="1" t="s">
         <v>1569</v>
@@ -56843,7 +56896,7 @@
         <v>35</v>
       </c>
       <c r="M138" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N138" s="1" t="s">
         <v>1569</v>
@@ -56888,7 +56941,7 @@
         <v>35</v>
       </c>
       <c r="M139" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N139" s="1" t="s">
         <v>1569</v>
@@ -60708,9 +60761,6 @@
         <v>43</v>
       </c>
       <c r="P226" s="1"/>
-      <c r="S226" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="227" spans="1:19">
       <c r="A227">
@@ -61823,9 +61873,6 @@
       <c r="R250" t="s">
         <v>1884</v>
       </c>
-      <c r="S250" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="251" spans="1:19">
       <c r="A251">
@@ -61869,9 +61916,6 @@
       <c r="R251" t="s">
         <v>1884</v>
       </c>
-      <c r="S251" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="252" spans="1:19">
       <c r="A252">
@@ -61915,9 +61959,6 @@
       <c r="R252" t="s">
         <v>1884</v>
       </c>
-      <c r="S252" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="253" spans="1:19">
       <c r="A253">
@@ -62374,9 +62415,6 @@
       <c r="P262" s="1" t="s">
         <v>2630</v>
       </c>
-      <c r="S262" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="263" spans="1:19">
       <c r="A263">
@@ -62581,6 +62619,9 @@
         <v>955</v>
       </c>
       <c r="P267" s="1"/>
+      <c r="S267" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="268" spans="1:19">
       <c r="A268">
@@ -62620,6 +62661,9 @@
         <v>955</v>
       </c>
       <c r="P268" s="1"/>
+      <c r="S268" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="269" spans="1:19">
       <c r="A269">
@@ -64068,7 +64112,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="305" spans="1:16">
+    <row r="305" spans="1:19">
       <c r="A305">
         <v>753</v>
       </c>
@@ -64103,7 +64147,7 @@
       </c>
       <c r="P305" s="1"/>
     </row>
-    <row r="306" spans="1:16">
+    <row r="306" spans="1:19">
       <c r="A306">
         <v>754</v>
       </c>
@@ -64144,8 +64188,11 @@
         <v>955</v>
       </c>
       <c r="P306" s="1"/>
-    </row>
-    <row r="307" spans="1:16">
+      <c r="S306" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19">
       <c r="A307">
         <v>755</v>
       </c>
@@ -64186,8 +64233,11 @@
         <v>955</v>
       </c>
       <c r="P307" s="1"/>
-    </row>
-    <row r="308" spans="1:16">
+      <c r="S307" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19">
       <c r="A308">
         <v>756</v>
       </c>
@@ -64229,7 +64279,7 @@
       </c>
       <c r="P308" s="1"/>
     </row>
-    <row r="309" spans="1:16">
+    <row r="309" spans="1:19">
       <c r="A309">
         <v>757</v>
       </c>
@@ -64271,7 +64321,7 @@
       </c>
       <c r="P309" s="1"/>
     </row>
-    <row r="310" spans="1:16">
+    <row r="310" spans="1:19">
       <c r="A310">
         <v>758</v>
       </c>
@@ -64306,7 +64356,7 @@
       </c>
       <c r="P310" s="1"/>
     </row>
-    <row r="311" spans="1:16">
+    <row r="311" spans="1:19">
       <c r="A311">
         <v>759</v>
       </c>
@@ -64348,7 +64398,7 @@
       </c>
       <c r="P311" s="1"/>
     </row>
-    <row r="312" spans="1:16">
+    <row r="312" spans="1:19">
       <c r="A312">
         <v>760</v>
       </c>
@@ -64390,7 +64440,7 @@
       </c>
       <c r="P312" s="1"/>
     </row>
-    <row r="313" spans="1:16">
+    <row r="313" spans="1:19">
       <c r="A313">
         <v>761</v>
       </c>
@@ -64425,7 +64475,7 @@
       </c>
       <c r="P313" s="1"/>
     </row>
-    <row r="314" spans="1:16">
+    <row r="314" spans="1:19">
       <c r="A314">
         <v>762</v>
       </c>
@@ -64460,7 +64510,7 @@
       </c>
       <c r="P314" s="1"/>
     </row>
-    <row r="315" spans="1:16">
+    <row r="315" spans="1:19">
       <c r="A315">
         <v>763</v>
       </c>
@@ -64495,7 +64545,7 @@
       </c>
       <c r="P315" s="1"/>
     </row>
-    <row r="316" spans="1:16">
+    <row r="316" spans="1:19">
       <c r="A316">
         <v>764</v>
       </c>
@@ -64530,7 +64580,7 @@
       </c>
       <c r="P316" s="1"/>
     </row>
-    <row r="317" spans="1:16">
+    <row r="317" spans="1:19">
       <c r="A317">
         <v>765</v>
       </c>
@@ -64565,7 +64615,7 @@
       </c>
       <c r="P317" s="1"/>
     </row>
-    <row r="318" spans="1:16">
+    <row r="318" spans="1:19">
       <c r="A318">
         <v>766</v>
       </c>
@@ -64604,7 +64654,7 @@
       </c>
       <c r="P318" s="1"/>
     </row>
-    <row r="319" spans="1:16">
+    <row r="319" spans="1:19">
       <c r="A319">
         <v>767</v>
       </c>
@@ -64643,7 +64693,7 @@
       </c>
       <c r="P319" s="1"/>
     </row>
-    <row r="320" spans="1:16">
+    <row r="320" spans="1:19">
       <c r="A320">
         <v>768</v>
       </c>
@@ -64682,7 +64732,7 @@
       </c>
       <c r="P320" s="1"/>
     </row>
-    <row r="321" spans="1:16">
+    <row r="321" spans="1:19">
       <c r="A321">
         <v>769</v>
       </c>
@@ -64723,8 +64773,11 @@
         <v>955</v>
       </c>
       <c r="P321" s="1"/>
-    </row>
-    <row r="322" spans="1:16">
+      <c r="S321" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19">
       <c r="A322">
         <v>770</v>
       </c>
@@ -64765,8 +64818,11 @@
         <v>955</v>
       </c>
       <c r="P322" s="1"/>
-    </row>
-    <row r="323" spans="1:16">
+      <c r="S322" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="323" spans="1:19">
       <c r="A323">
         <v>771</v>
       </c>
@@ -64807,8 +64863,11 @@
         <v>955</v>
       </c>
       <c r="P323" s="1"/>
-    </row>
-    <row r="324" spans="1:16">
+      <c r="S323" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19">
       <c r="A324">
         <v>772</v>
       </c>
@@ -64849,8 +64908,11 @@
         <v>955</v>
       </c>
       <c r="P324" s="1"/>
-    </row>
-    <row r="325" spans="1:16">
+      <c r="S324" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="325" spans="1:19">
       <c r="A325">
         <v>773</v>
       </c>
@@ -64888,8 +64950,11 @@
         <v>955</v>
       </c>
       <c r="P325" s="1"/>
-    </row>
-    <row r="326" spans="1:16">
+      <c r="S325" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="326" spans="1:19">
       <c r="A326">
         <v>774</v>
       </c>
@@ -64927,8 +64992,11 @@
         <v>955</v>
       </c>
       <c r="P326" s="1"/>
-    </row>
-    <row r="327" spans="1:16">
+      <c r="S326" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19">
       <c r="A327">
         <v>775</v>
       </c>
@@ -64966,8 +65034,11 @@
         <v>955</v>
       </c>
       <c r="P327" s="1"/>
-    </row>
-    <row r="328" spans="1:16">
+      <c r="S327" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19">
       <c r="A328">
         <v>776</v>
       </c>
@@ -65005,8 +65076,11 @@
         <v>955</v>
       </c>
       <c r="P328" s="1"/>
-    </row>
-    <row r="329" spans="1:16">
+      <c r="S328" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19">
       <c r="A329">
         <v>777</v>
       </c>
@@ -65044,8 +65118,11 @@
         <v>955</v>
       </c>
       <c r="P329" s="1"/>
-    </row>
-    <row r="330" spans="1:16">
+      <c r="S329" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="330" spans="1:19">
       <c r="A330">
         <v>778</v>
       </c>
@@ -65083,8 +65160,11 @@
         <v>955</v>
       </c>
       <c r="P330" s="1"/>
-    </row>
-    <row r="331" spans="1:16">
+      <c r="S330" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="331" spans="1:19">
       <c r="A331">
         <v>779</v>
       </c>
@@ -65122,8 +65202,11 @@
         <v>955</v>
       </c>
       <c r="P331" s="1"/>
-    </row>
-    <row r="332" spans="1:16">
+      <c r="S331" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19">
       <c r="A332">
         <v>780</v>
       </c>
@@ -65161,8 +65244,11 @@
         <v>955</v>
       </c>
       <c r="P332" s="1"/>
-    </row>
-    <row r="333" spans="1:16">
+      <c r="S332" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="333" spans="1:19">
       <c r="A333">
         <v>781</v>
       </c>
@@ -65200,8 +65286,11 @@
         <v>955</v>
       </c>
       <c r="P333" s="1"/>
-    </row>
-    <row r="334" spans="1:16">
+      <c r="S333" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="334" spans="1:19">
       <c r="A334">
         <v>782</v>
       </c>
@@ -65239,8 +65328,11 @@
         <v>955</v>
       </c>
       <c r="P334" s="1"/>
-    </row>
-    <row r="335" spans="1:16">
+      <c r="S334" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="335" spans="1:19">
       <c r="A335">
         <v>783</v>
       </c>
@@ -65281,8 +65373,11 @@
         <v>955</v>
       </c>
       <c r="P335" s="1"/>
-    </row>
-    <row r="336" spans="1:16">
+      <c r="S335" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="336" spans="1:19">
       <c r="A336">
         <v>784</v>
       </c>
@@ -65323,8 +65418,11 @@
         <v>955</v>
       </c>
       <c r="P336" s="1"/>
-    </row>
-    <row r="337" spans="1:16">
+      <c r="S336" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="337" spans="1:19">
       <c r="A337">
         <v>785</v>
       </c>
@@ -65363,7 +65461,7 @@
       </c>
       <c r="P337" s="1"/>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:19">
       <c r="A338">
         <v>786</v>
       </c>
@@ -65398,7 +65496,7 @@
       </c>
       <c r="P338" s="1"/>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:19">
       <c r="A339">
         <v>787</v>
       </c>
@@ -65433,7 +65531,7 @@
       </c>
       <c r="P339" s="1"/>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:19">
       <c r="A340">
         <v>788</v>
       </c>
@@ -65468,7 +65566,7 @@
       </c>
       <c r="P340" s="1"/>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:19">
       <c r="A341">
         <v>789</v>
       </c>
@@ -65503,7 +65601,7 @@
       </c>
       <c r="P341" s="1"/>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:19">
       <c r="A342">
         <v>790</v>
       </c>
@@ -65541,8 +65639,11 @@
         <v>955</v>
       </c>
       <c r="P342" s="1"/>
-    </row>
-    <row r="343" spans="1:16">
+      <c r="S342" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="343" spans="1:19">
       <c r="A343">
         <v>791</v>
       </c>
@@ -65580,8 +65681,11 @@
         <v>955</v>
       </c>
       <c r="P343" s="1"/>
-    </row>
-    <row r="344" spans="1:16">
+      <c r="S343" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="344" spans="1:19">
       <c r="A344">
         <v>792</v>
       </c>
@@ -65619,8 +65723,11 @@
         <v>955</v>
       </c>
       <c r="P344" s="1"/>
-    </row>
-    <row r="345" spans="1:16">
+      <c r="S344" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="345" spans="1:19">
       <c r="A345">
         <v>793</v>
       </c>
@@ -65658,8 +65765,11 @@
         <v>955</v>
       </c>
       <c r="P345" s="1"/>
-    </row>
-    <row r="346" spans="1:16">
+      <c r="S345" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="346" spans="1:19">
       <c r="A346">
         <v>794</v>
       </c>
@@ -65700,8 +65810,11 @@
         <v>955</v>
       </c>
       <c r="P346" s="1"/>
-    </row>
-    <row r="347" spans="1:16">
+      <c r="S346" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="347" spans="1:19">
       <c r="A347">
         <v>795</v>
       </c>
@@ -65739,8 +65852,11 @@
         <v>955</v>
       </c>
       <c r="P347" s="1"/>
-    </row>
-    <row r="348" spans="1:16">
+      <c r="S347" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="348" spans="1:19">
       <c r="A348">
         <v>796</v>
       </c>
@@ -65779,7 +65895,7 @@
       </c>
       <c r="P348" s="1"/>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:19">
       <c r="A349">
         <v>797</v>
       </c>
@@ -65818,7 +65934,7 @@
       </c>
       <c r="P349" s="1"/>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:19">
       <c r="A350">
         <v>798</v>
       </c>
@@ -65860,7 +65976,7 @@
       </c>
       <c r="P350" s="1"/>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:19">
       <c r="A351">
         <v>799</v>
       </c>
@@ -65902,7 +66018,7 @@
       </c>
       <c r="P351" s="1"/>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:19">
       <c r="A352">
         <v>800</v>
       </c>

--- a/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
+++ b/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12835" uniqueCount="2788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12784" uniqueCount="2788">
   <si>
     <t>This content was derived from the file IJE_File_Layouts_Version_2021_FHIR* and is automatically generated from the source file IJE_File_Layouts_and_FHIR_Mapping_24-06-21.csv.
 The CSV version of the file is used to drive the content of narrative generated for the Vital Records Implementation Guides (VRDR, BFDR, and VRCL).
@@ -13701,9 +13701,6 @@
       </c>
       <c r="N91" s="1"/>
       <c r="P91" s="1"/>
-      <c r="S91" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="92" spans="1:19">
       <c r="A92">
@@ -45036,7 +45033,7 @@
       </c>
       <c r="P224" s="1"/>
     </row>
-    <row r="225" spans="1:19">
+    <row r="225" spans="1:16">
       <c r="A225">
         <v>1035</v>
       </c>
@@ -45071,7 +45068,7 @@
       </c>
       <c r="P225" s="1"/>
     </row>
-    <row r="226" spans="1:19">
+    <row r="226" spans="1:16">
       <c r="A226">
         <v>1036</v>
       </c>
@@ -45113,7 +45110,7 @@
       </c>
       <c r="P226" s="1"/>
     </row>
-    <row r="227" spans="1:19">
+    <row r="227" spans="1:16">
       <c r="A227">
         <v>1037</v>
       </c>
@@ -45155,7 +45152,7 @@
       </c>
       <c r="P227" s="1"/>
     </row>
-    <row r="228" spans="1:19">
+    <row r="228" spans="1:16">
       <c r="A228">
         <v>1038</v>
       </c>
@@ -45197,7 +45194,7 @@
       </c>
       <c r="P228" s="1"/>
     </row>
-    <row r="229" spans="1:19">
+    <row r="229" spans="1:16">
       <c r="A229">
         <v>1039</v>
       </c>
@@ -45236,7 +45233,7 @@
       </c>
       <c r="P229" s="1"/>
     </row>
-    <row r="230" spans="1:19">
+    <row r="230" spans="1:16">
       <c r="A230">
         <v>1040</v>
       </c>
@@ -45271,7 +45268,7 @@
       </c>
       <c r="P230" s="1"/>
     </row>
-    <row r="231" spans="1:19">
+    <row r="231" spans="1:16">
       <c r="A231">
         <v>1041</v>
       </c>
@@ -45310,7 +45307,7 @@
       </c>
       <c r="P231" s="1"/>
     </row>
-    <row r="232" spans="1:19">
+    <row r="232" spans="1:16">
       <c r="A232">
         <v>1042</v>
       </c>
@@ -45348,11 +45345,8 @@
         <v>955</v>
       </c>
       <c r="P232" s="1"/>
-      <c r="S232" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="233" spans="1:19">
+    </row>
+    <row r="233" spans="1:16">
       <c r="A233">
         <v>1043</v>
       </c>
@@ -45390,11 +45384,8 @@
         <v>955</v>
       </c>
       <c r="P233" s="1"/>
-      <c r="S233" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="234" spans="1:19">
+    </row>
+    <row r="234" spans="1:16">
       <c r="A234">
         <v>1044</v>
       </c>
@@ -45432,11 +45423,8 @@
         <v>955</v>
       </c>
       <c r="P234" s="1"/>
-      <c r="S234" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="235" spans="1:19">
+    </row>
+    <row r="235" spans="1:16">
       <c r="A235">
         <v>1045</v>
       </c>
@@ -45474,11 +45462,8 @@
         <v>955</v>
       </c>
       <c r="P235" s="1"/>
-      <c r="S235" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="236" spans="1:19">
+    </row>
+    <row r="236" spans="1:16">
       <c r="A236">
         <v>1046</v>
       </c>
@@ -45516,11 +45501,8 @@
         <v>955</v>
       </c>
       <c r="P236" s="1"/>
-      <c r="S236" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="237" spans="1:19">
+    </row>
+    <row r="237" spans="1:16">
       <c r="A237">
         <v>1047</v>
       </c>
@@ -45558,11 +45540,8 @@
         <v>955</v>
       </c>
       <c r="P237" s="1"/>
-      <c r="S237" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="238" spans="1:19">
+    </row>
+    <row r="238" spans="1:16">
       <c r="A238">
         <v>1048</v>
       </c>
@@ -45600,11 +45579,8 @@
         <v>955</v>
       </c>
       <c r="P238" s="1"/>
-      <c r="S238" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="239" spans="1:19">
+    </row>
+    <row r="239" spans="1:16">
       <c r="A239">
         <v>1049</v>
       </c>
@@ -45642,11 +45618,8 @@
         <v>955</v>
       </c>
       <c r="P239" s="1"/>
-      <c r="S239" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="240" spans="1:19">
+    </row>
+    <row r="240" spans="1:16">
       <c r="A240">
         <v>1050</v>
       </c>
@@ -45684,9 +45657,6 @@
         <v>955</v>
       </c>
       <c r="P240" s="1"/>
-      <c r="S240" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="241" spans="1:19">
       <c r="A241">
@@ -45726,9 +45696,6 @@
         <v>955</v>
       </c>
       <c r="P241" s="1"/>
-      <c r="S241" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="242" spans="1:19">
       <c r="A242">
@@ -45771,9 +45738,6 @@
         <v>955</v>
       </c>
       <c r="P242" s="1"/>
-      <c r="S242" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="243" spans="1:19">
       <c r="A243">
@@ -45816,9 +45780,6 @@
         <v>955</v>
       </c>
       <c r="P243" s="1"/>
-      <c r="S243" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="244" spans="1:19">
       <c r="A244">
@@ -46985,7 +46946,7 @@
       </c>
       <c r="P272" s="1"/>
     </row>
-    <row r="273" spans="1:19">
+    <row r="273" spans="1:18">
       <c r="A273">
         <v>1083</v>
       </c>
@@ -47024,7 +46985,7 @@
       </c>
       <c r="P273" s="1"/>
     </row>
-    <row r="274" spans="1:19">
+    <row r="274" spans="1:18">
       <c r="A274">
         <v>1084</v>
       </c>
@@ -47059,7 +47020,7 @@
       </c>
       <c r="P274" s="1"/>
     </row>
-    <row r="275" spans="1:19">
+    <row r="275" spans="1:18">
       <c r="A275">
         <v>1085</v>
       </c>
@@ -47094,7 +47055,7 @@
       </c>
       <c r="P275" s="1"/>
     </row>
-    <row r="276" spans="1:19">
+    <row r="276" spans="1:18">
       <c r="A276">
         <v>1086</v>
       </c>
@@ -47138,7 +47099,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="277" spans="1:19">
+    <row r="277" spans="1:18">
       <c r="A277">
         <v>1087</v>
       </c>
@@ -47171,7 +47132,7 @@
       </c>
       <c r="P277" s="1"/>
     </row>
-    <row r="278" spans="1:19">
+    <row r="278" spans="1:18">
       <c r="A278">
         <v>1088</v>
       </c>
@@ -47215,7 +47176,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="279" spans="1:19">
+    <row r="279" spans="1:18">
       <c r="A279">
         <v>1089</v>
       </c>
@@ -47248,7 +47209,7 @@
       </c>
       <c r="P279" s="1"/>
     </row>
-    <row r="280" spans="1:19">
+    <row r="280" spans="1:18">
       <c r="A280">
         <v>1090</v>
       </c>
@@ -47293,7 +47254,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="281" spans="1:19">
+    <row r="281" spans="1:18">
       <c r="A281">
         <v>1091</v>
       </c>
@@ -47326,7 +47287,7 @@
       </c>
       <c r="P281" s="1"/>
     </row>
-    <row r="282" spans="1:19">
+    <row r="282" spans="1:18">
       <c r="A282">
         <v>1092</v>
       </c>
@@ -47370,7 +47331,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="283" spans="1:19">
+    <row r="283" spans="1:18">
       <c r="A283">
         <v>1093</v>
       </c>
@@ -47403,7 +47364,7 @@
       </c>
       <c r="P283" s="1"/>
     </row>
-    <row r="284" spans="1:19">
+    <row r="284" spans="1:18">
       <c r="A284">
         <v>1094</v>
       </c>
@@ -47444,11 +47405,8 @@
         <v>955</v>
       </c>
       <c r="P284" s="1"/>
-      <c r="S284" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="285" spans="1:19">
+    </row>
+    <row r="285" spans="1:18">
       <c r="A285">
         <v>1095</v>
       </c>
@@ -47489,11 +47447,8 @@
         <v>955</v>
       </c>
       <c r="P285" s="1"/>
-      <c r="S285" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="286" spans="1:19">
+    </row>
+    <row r="286" spans="1:18">
       <c r="A286">
         <v>1096</v>
       </c>
@@ -47534,11 +47489,8 @@
         <v>955</v>
       </c>
       <c r="P286" s="1"/>
-      <c r="S286" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="287" spans="1:19">
+    </row>
+    <row r="287" spans="1:18">
       <c r="A287">
         <v>1097</v>
       </c>
@@ -47579,11 +47531,8 @@
         <v>955</v>
       </c>
       <c r="P287" s="1"/>
-      <c r="S287" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="288" spans="1:19">
+    </row>
+    <row r="288" spans="1:18">
       <c r="A288">
         <v>1098</v>
       </c>
@@ -47624,11 +47573,8 @@
         <v>955</v>
       </c>
       <c r="P288" s="1"/>
-      <c r="S288" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="289" spans="1:19">
+    </row>
+    <row r="289" spans="1:16">
       <c r="A289">
         <v>1099</v>
       </c>
@@ -47669,11 +47615,8 @@
         <v>955</v>
       </c>
       <c r="P289" s="1"/>
-      <c r="S289" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="290" spans="1:19">
+    </row>
+    <row r="290" spans="1:16">
       <c r="A290">
         <v>1100</v>
       </c>
@@ -47715,7 +47658,7 @@
       </c>
       <c r="P290" s="1"/>
     </row>
-    <row r="291" spans="1:19">
+    <row r="291" spans="1:16">
       <c r="A291">
         <v>1101</v>
       </c>
@@ -47757,7 +47700,7 @@
       </c>
       <c r="P291" s="1"/>
     </row>
-    <row r="292" spans="1:19">
+    <row r="292" spans="1:16">
       <c r="A292">
         <v>1102</v>
       </c>
@@ -47799,7 +47742,7 @@
       </c>
       <c r="P292" s="1"/>
     </row>
-    <row r="293" spans="1:19">
+    <row r="293" spans="1:16">
       <c r="A293">
         <v>1103</v>
       </c>
@@ -47841,7 +47784,7 @@
       </c>
       <c r="P293" s="1"/>
     </row>
-    <row r="294" spans="1:19">
+    <row r="294" spans="1:16">
       <c r="A294">
         <v>1104</v>
       </c>
@@ -47883,7 +47826,7 @@
       </c>
       <c r="P294" s="1"/>
     </row>
-    <row r="295" spans="1:19">
+    <row r="295" spans="1:16">
       <c r="A295">
         <v>1105</v>
       </c>
@@ -47925,7 +47868,7 @@
       </c>
       <c r="P295" s="1"/>
     </row>
-    <row r="296" spans="1:19">
+    <row r="296" spans="1:16">
       <c r="A296">
         <v>1106</v>
       </c>
@@ -47964,7 +47907,7 @@
       </c>
       <c r="P296" s="1"/>
     </row>
-    <row r="297" spans="1:19">
+    <row r="297" spans="1:16">
       <c r="A297">
         <v>1107</v>
       </c>
@@ -48003,7 +47946,7 @@
       </c>
       <c r="P297" s="1"/>
     </row>
-    <row r="298" spans="1:19">
+    <row r="298" spans="1:16">
       <c r="A298">
         <v>1108</v>
       </c>
@@ -48042,7 +47985,7 @@
       </c>
       <c r="P298" s="1"/>
     </row>
-    <row r="299" spans="1:19">
+    <row r="299" spans="1:16">
       <c r="A299">
         <v>1109</v>
       </c>
@@ -48081,7 +48024,7 @@
       </c>
       <c r="P299" s="1"/>
     </row>
-    <row r="300" spans="1:19">
+    <row r="300" spans="1:16">
       <c r="A300">
         <v>1110</v>
       </c>
@@ -48120,7 +48063,7 @@
       </c>
       <c r="P300" s="1"/>
     </row>
-    <row r="301" spans="1:19">
+    <row r="301" spans="1:16">
       <c r="A301">
         <v>1111</v>
       </c>
@@ -48159,7 +48102,7 @@
       </c>
       <c r="P301" s="1"/>
     </row>
-    <row r="302" spans="1:19">
+    <row r="302" spans="1:16">
       <c r="A302">
         <v>1112</v>
       </c>
@@ -48198,7 +48141,7 @@
       </c>
       <c r="P302" s="1"/>
     </row>
-    <row r="303" spans="1:19">
+    <row r="303" spans="1:16">
       <c r="A303">
         <v>1113</v>
       </c>
@@ -48237,7 +48180,7 @@
       </c>
       <c r="P303" s="1"/>
     </row>
-    <row r="304" spans="1:19">
+    <row r="304" spans="1:16">
       <c r="A304">
         <v>1114</v>
       </c>
@@ -49575,7 +49518,7 @@
       </c>
       <c r="P336" s="1"/>
     </row>
-    <row r="337" spans="1:19">
+    <row r="337" spans="1:16">
       <c r="A337">
         <v>1147</v>
       </c>
@@ -49617,7 +49560,7 @@
       </c>
       <c r="P337" s="1"/>
     </row>
-    <row r="338" spans="1:19">
+    <row r="338" spans="1:16">
       <c r="A338">
         <v>1148</v>
       </c>
@@ -49652,7 +49595,7 @@
       </c>
       <c r="P338" s="1"/>
     </row>
-    <row r="339" spans="1:19">
+    <row r="339" spans="1:16">
       <c r="A339">
         <v>1149</v>
       </c>
@@ -49694,7 +49637,7 @@
       </c>
       <c r="P339" s="1"/>
     </row>
-    <row r="340" spans="1:19">
+    <row r="340" spans="1:16">
       <c r="A340">
         <v>1150</v>
       </c>
@@ -49736,7 +49679,7 @@
       </c>
       <c r="P340" s="1"/>
     </row>
-    <row r="341" spans="1:19">
+    <row r="341" spans="1:16">
       <c r="A341">
         <v>1151</v>
       </c>
@@ -49771,7 +49714,7 @@
       </c>
       <c r="P341" s="1"/>
     </row>
-    <row r="342" spans="1:19">
+    <row r="342" spans="1:16">
       <c r="A342">
         <v>1152</v>
       </c>
@@ -49806,7 +49749,7 @@
       </c>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:19">
+    <row r="343" spans="1:16">
       <c r="A343">
         <v>1153</v>
       </c>
@@ -49841,7 +49784,7 @@
       </c>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:19">
+    <row r="344" spans="1:16">
       <c r="A344">
         <v>1154</v>
       </c>
@@ -49876,7 +49819,7 @@
       </c>
       <c r="P344" s="1"/>
     </row>
-    <row r="345" spans="1:19">
+    <row r="345" spans="1:16">
       <c r="A345">
         <v>1155</v>
       </c>
@@ -49911,7 +49854,7 @@
       </c>
       <c r="P345" s="1"/>
     </row>
-    <row r="346" spans="1:19">
+    <row r="346" spans="1:16">
       <c r="A346">
         <v>1156</v>
       </c>
@@ -49950,7 +49893,7 @@
       </c>
       <c r="P346" s="1"/>
     </row>
-    <row r="347" spans="1:19">
+    <row r="347" spans="1:16">
       <c r="A347">
         <v>1157</v>
       </c>
@@ -49988,11 +49931,8 @@
         <v>955</v>
       </c>
       <c r="P347" s="1"/>
-      <c r="S347" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="348" spans="1:19">
+    </row>
+    <row r="348" spans="1:16">
       <c r="A348">
         <v>1158</v>
       </c>
@@ -50030,11 +49970,8 @@
         <v>955</v>
       </c>
       <c r="P348" s="1"/>
-      <c r="S348" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="349" spans="1:19">
+    </row>
+    <row r="349" spans="1:16">
       <c r="A349">
         <v>1159</v>
       </c>
@@ -50075,11 +50012,8 @@
         <v>955</v>
       </c>
       <c r="P349" s="1"/>
-      <c r="S349" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="350" spans="1:19">
+    </row>
+    <row r="350" spans="1:16">
       <c r="A350">
         <v>1160</v>
       </c>
@@ -50112,7 +50046,7 @@
       </c>
       <c r="P350" s="1"/>
     </row>
-    <row r="351" spans="1:19">
+    <row r="351" spans="1:16">
       <c r="A351">
         <v>1161</v>
       </c>
@@ -50145,7 +50079,7 @@
       </c>
       <c r="P351" s="1"/>
     </row>
-    <row r="352" spans="1:19">
+    <row r="352" spans="1:16">
       <c r="A352">
         <v>1162</v>
       </c>
@@ -50258,9 +50192,6 @@
         <v>955</v>
       </c>
       <c r="P354" s="1"/>
-      <c r="S354" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="355" spans="1:19">
       <c r="A355">
@@ -50303,9 +50234,6 @@
         <v>955</v>
       </c>
       <c r="P355" s="1"/>
-      <c r="S355" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="356" spans="1:19">
       <c r="A356">
@@ -50348,9 +50276,6 @@
         <v>955</v>
       </c>
       <c r="P356" s="1"/>
-      <c r="S356" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="357" spans="1:19">
       <c r="A357">
@@ -62619,9 +62544,6 @@
         <v>955</v>
       </c>
       <c r="P267" s="1"/>
-      <c r="S267" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="268" spans="1:19">
       <c r="A268">
@@ -62661,9 +62583,6 @@
         <v>955</v>
       </c>
       <c r="P268" s="1"/>
-      <c r="S268" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="269" spans="1:19">
       <c r="A269">
@@ -64112,7 +64031,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="305" spans="1:19">
+    <row r="305" spans="1:16">
       <c r="A305">
         <v>753</v>
       </c>
@@ -64147,7 +64066,7 @@
       </c>
       <c r="P305" s="1"/>
     </row>
-    <row r="306" spans="1:19">
+    <row r="306" spans="1:16">
       <c r="A306">
         <v>754</v>
       </c>
@@ -64188,11 +64107,8 @@
         <v>955</v>
       </c>
       <c r="P306" s="1"/>
-      <c r="S306" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="307" spans="1:19">
+    </row>
+    <row r="307" spans="1:16">
       <c r="A307">
         <v>755</v>
       </c>
@@ -64233,11 +64149,8 @@
         <v>955</v>
       </c>
       <c r="P307" s="1"/>
-      <c r="S307" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="308" spans="1:19">
+    </row>
+    <row r="308" spans="1:16">
       <c r="A308">
         <v>756</v>
       </c>
@@ -64279,7 +64192,7 @@
       </c>
       <c r="P308" s="1"/>
     </row>
-    <row r="309" spans="1:19">
+    <row r="309" spans="1:16">
       <c r="A309">
         <v>757</v>
       </c>
@@ -64321,7 +64234,7 @@
       </c>
       <c r="P309" s="1"/>
     </row>
-    <row r="310" spans="1:19">
+    <row r="310" spans="1:16">
       <c r="A310">
         <v>758</v>
       </c>
@@ -64356,7 +64269,7 @@
       </c>
       <c r="P310" s="1"/>
     </row>
-    <row r="311" spans="1:19">
+    <row r="311" spans="1:16">
       <c r="A311">
         <v>759</v>
       </c>
@@ -64398,7 +64311,7 @@
       </c>
       <c r="P311" s="1"/>
     </row>
-    <row r="312" spans="1:19">
+    <row r="312" spans="1:16">
       <c r="A312">
         <v>760</v>
       </c>
@@ -64440,7 +64353,7 @@
       </c>
       <c r="P312" s="1"/>
     </row>
-    <row r="313" spans="1:19">
+    <row r="313" spans="1:16">
       <c r="A313">
         <v>761</v>
       </c>
@@ -64475,7 +64388,7 @@
       </c>
       <c r="P313" s="1"/>
     </row>
-    <row r="314" spans="1:19">
+    <row r="314" spans="1:16">
       <c r="A314">
         <v>762</v>
       </c>
@@ -64510,7 +64423,7 @@
       </c>
       <c r="P314" s="1"/>
     </row>
-    <row r="315" spans="1:19">
+    <row r="315" spans="1:16">
       <c r="A315">
         <v>763</v>
       </c>
@@ -64545,7 +64458,7 @@
       </c>
       <c r="P315" s="1"/>
     </row>
-    <row r="316" spans="1:19">
+    <row r="316" spans="1:16">
       <c r="A316">
         <v>764</v>
       </c>
@@ -64580,7 +64493,7 @@
       </c>
       <c r="P316" s="1"/>
     </row>
-    <row r="317" spans="1:19">
+    <row r="317" spans="1:16">
       <c r="A317">
         <v>765</v>
       </c>
@@ -64615,7 +64528,7 @@
       </c>
       <c r="P317" s="1"/>
     </row>
-    <row r="318" spans="1:19">
+    <row r="318" spans="1:16">
       <c r="A318">
         <v>766</v>
       </c>
@@ -64654,7 +64567,7 @@
       </c>
       <c r="P318" s="1"/>
     </row>
-    <row r="319" spans="1:19">
+    <row r="319" spans="1:16">
       <c r="A319">
         <v>767</v>
       </c>
@@ -64693,7 +64606,7 @@
       </c>
       <c r="P319" s="1"/>
     </row>
-    <row r="320" spans="1:19">
+    <row r="320" spans="1:16">
       <c r="A320">
         <v>768</v>
       </c>
@@ -64732,7 +64645,7 @@
       </c>
       <c r="P320" s="1"/>
     </row>
-    <row r="321" spans="1:19">
+    <row r="321" spans="1:16">
       <c r="A321">
         <v>769</v>
       </c>
@@ -64773,11 +64686,8 @@
         <v>955</v>
       </c>
       <c r="P321" s="1"/>
-      <c r="S321" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="322" spans="1:19">
+    </row>
+    <row r="322" spans="1:16">
       <c r="A322">
         <v>770</v>
       </c>
@@ -64818,11 +64728,8 @@
         <v>955</v>
       </c>
       <c r="P322" s="1"/>
-      <c r="S322" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="323" spans="1:19">
+    </row>
+    <row r="323" spans="1:16">
       <c r="A323">
         <v>771</v>
       </c>
@@ -64863,11 +64770,8 @@
         <v>955</v>
       </c>
       <c r="P323" s="1"/>
-      <c r="S323" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="324" spans="1:19">
+    </row>
+    <row r="324" spans="1:16">
       <c r="A324">
         <v>772</v>
       </c>
@@ -64908,11 +64812,8 @@
         <v>955</v>
       </c>
       <c r="P324" s="1"/>
-      <c r="S324" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="325" spans="1:19">
+    </row>
+    <row r="325" spans="1:16">
       <c r="A325">
         <v>773</v>
       </c>
@@ -64950,11 +64851,8 @@
         <v>955</v>
       </c>
       <c r="P325" s="1"/>
-      <c r="S325" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="326" spans="1:19">
+    </row>
+    <row r="326" spans="1:16">
       <c r="A326">
         <v>774</v>
       </c>
@@ -64992,11 +64890,8 @@
         <v>955</v>
       </c>
       <c r="P326" s="1"/>
-      <c r="S326" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="327" spans="1:19">
+    </row>
+    <row r="327" spans="1:16">
       <c r="A327">
         <v>775</v>
       </c>
@@ -65034,11 +64929,8 @@
         <v>955</v>
       </c>
       <c r="P327" s="1"/>
-      <c r="S327" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="328" spans="1:19">
+    </row>
+    <row r="328" spans="1:16">
       <c r="A328">
         <v>776</v>
       </c>
@@ -65076,11 +64968,8 @@
         <v>955</v>
       </c>
       <c r="P328" s="1"/>
-      <c r="S328" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="329" spans="1:19">
+    </row>
+    <row r="329" spans="1:16">
       <c r="A329">
         <v>777</v>
       </c>
@@ -65118,11 +65007,8 @@
         <v>955</v>
       </c>
       <c r="P329" s="1"/>
-      <c r="S329" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="330" spans="1:19">
+    </row>
+    <row r="330" spans="1:16">
       <c r="A330">
         <v>778</v>
       </c>
@@ -65160,11 +65046,8 @@
         <v>955</v>
       </c>
       <c r="P330" s="1"/>
-      <c r="S330" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="331" spans="1:19">
+    </row>
+    <row r="331" spans="1:16">
       <c r="A331">
         <v>779</v>
       </c>
@@ -65202,11 +65085,8 @@
         <v>955</v>
       </c>
       <c r="P331" s="1"/>
-      <c r="S331" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="332" spans="1:19">
+    </row>
+    <row r="332" spans="1:16">
       <c r="A332">
         <v>780</v>
       </c>
@@ -65244,11 +65124,8 @@
         <v>955</v>
       </c>
       <c r="P332" s="1"/>
-      <c r="S332" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="333" spans="1:19">
+    </row>
+    <row r="333" spans="1:16">
       <c r="A333">
         <v>781</v>
       </c>
@@ -65286,11 +65163,8 @@
         <v>955</v>
       </c>
       <c r="P333" s="1"/>
-      <c r="S333" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="334" spans="1:19">
+    </row>
+    <row r="334" spans="1:16">
       <c r="A334">
         <v>782</v>
       </c>
@@ -65328,11 +65202,8 @@
         <v>955</v>
       </c>
       <c r="P334" s="1"/>
-      <c r="S334" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="335" spans="1:19">
+    </row>
+    <row r="335" spans="1:16">
       <c r="A335">
         <v>783</v>
       </c>
@@ -65373,11 +65244,8 @@
         <v>955</v>
       </c>
       <c r="P335" s="1"/>
-      <c r="S335" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="336" spans="1:19">
+    </row>
+    <row r="336" spans="1:16">
       <c r="A336">
         <v>784</v>
       </c>
@@ -65418,11 +65286,8 @@
         <v>955</v>
       </c>
       <c r="P336" s="1"/>
-      <c r="S336" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="337" spans="1:19">
+    </row>
+    <row r="337" spans="1:16">
       <c r="A337">
         <v>785</v>
       </c>
@@ -65461,7 +65326,7 @@
       </c>
       <c r="P337" s="1"/>
     </row>
-    <row r="338" spans="1:19">
+    <row r="338" spans="1:16">
       <c r="A338">
         <v>786</v>
       </c>
@@ -65496,7 +65361,7 @@
       </c>
       <c r="P338" s="1"/>
     </row>
-    <row r="339" spans="1:19">
+    <row r="339" spans="1:16">
       <c r="A339">
         <v>787</v>
       </c>
@@ -65531,7 +65396,7 @@
       </c>
       <c r="P339" s="1"/>
     </row>
-    <row r="340" spans="1:19">
+    <row r="340" spans="1:16">
       <c r="A340">
         <v>788</v>
       </c>
@@ -65566,7 +65431,7 @@
       </c>
       <c r="P340" s="1"/>
     </row>
-    <row r="341" spans="1:19">
+    <row r="341" spans="1:16">
       <c r="A341">
         <v>789</v>
       </c>
@@ -65601,7 +65466,7 @@
       </c>
       <c r="P341" s="1"/>
     </row>
-    <row r="342" spans="1:19">
+    <row r="342" spans="1:16">
       <c r="A342">
         <v>790</v>
       </c>
@@ -65639,11 +65504,8 @@
         <v>955</v>
       </c>
       <c r="P342" s="1"/>
-      <c r="S342" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="343" spans="1:19">
+    </row>
+    <row r="343" spans="1:16">
       <c r="A343">
         <v>791</v>
       </c>
@@ -65681,11 +65543,8 @@
         <v>955</v>
       </c>
       <c r="P343" s="1"/>
-      <c r="S343" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="344" spans="1:19">
+    </row>
+    <row r="344" spans="1:16">
       <c r="A344">
         <v>792</v>
       </c>
@@ -65723,11 +65582,8 @@
         <v>955</v>
       </c>
       <c r="P344" s="1"/>
-      <c r="S344" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="345" spans="1:19">
+    </row>
+    <row r="345" spans="1:16">
       <c r="A345">
         <v>793</v>
       </c>
@@ -65765,11 +65621,8 @@
         <v>955</v>
       </c>
       <c r="P345" s="1"/>
-      <c r="S345" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="346" spans="1:19">
+    </row>
+    <row r="346" spans="1:16">
       <c r="A346">
         <v>794</v>
       </c>
@@ -65810,11 +65663,8 @@
         <v>955</v>
       </c>
       <c r="P346" s="1"/>
-      <c r="S346" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="347" spans="1:19">
+    </row>
+    <row r="347" spans="1:16">
       <c r="A347">
         <v>795</v>
       </c>
@@ -65852,11 +65702,8 @@
         <v>955</v>
       </c>
       <c r="P347" s="1"/>
-      <c r="S347" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="348" spans="1:19">
+    </row>
+    <row r="348" spans="1:16">
       <c r="A348">
         <v>796</v>
       </c>
@@ -65895,7 +65742,7 @@
       </c>
       <c r="P348" s="1"/>
     </row>
-    <row r="349" spans="1:19">
+    <row r="349" spans="1:16">
       <c r="A349">
         <v>797</v>
       </c>
@@ -65934,7 +65781,7 @@
       </c>
       <c r="P349" s="1"/>
     </row>
-    <row r="350" spans="1:19">
+    <row r="350" spans="1:16">
       <c r="A350">
         <v>798</v>
       </c>
@@ -65976,7 +65823,7 @@
       </c>
       <c r="P350" s="1"/>
     </row>
-    <row r="351" spans="1:19">
+    <row r="351" spans="1:16">
       <c r="A351">
         <v>799</v>
       </c>
@@ -66018,7 +65865,7 @@
       </c>
       <c r="P351" s="1"/>
     </row>
-    <row r="352" spans="1:19">
+    <row r="352" spans="1:16">
       <c r="A352">
         <v>800</v>
       </c>
